--- a/report_folder/report_4.1.b_wirkungsorientierung.xlsx
+++ b/report_folder/report_4.1.b_wirkungsorientierung.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="164"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,6 +94,12 @@
     </font>
     <font>
       <name val="Avenir Next Condensed Medium"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Avenir Next Condensed Regular"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -232,7 +238,7 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -289,20 +295,11 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -322,8 +319,23 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -712,26 +724,49 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="3091BD"/>
-            </a:solidFill>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="4FA1C7"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -744,7 +779,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -757,7 +792,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -779,6 +814,21 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -924,30 +974,38 @@
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="3091BD"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="3091BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="4FA1C7"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -958,10 +1016,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -972,10 +1029,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -986,10 +1042,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1083,7 +1138,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="800">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1444,7 +1499,7 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
@@ -1463,7 +1518,6 @@
                 <a:srgbClr val="3091BD"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1474,10 +1528,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="4FA1C7"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1488,10 +1541,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="6EB2D1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1502,10 +1554,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="8DC3DC"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1516,10 +1567,9 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="3091BD"/>
+                <a:srgbClr val="ACD3E5"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1760,27 +1810,37 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFAA3A"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFAA3A"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1794,7 +1854,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1808,7 +1868,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1822,7 +1882,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2065,27 +2125,37 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="64AA72"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="64AA72"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="7BB787"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2099,7 +2169,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="92C39C"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2113,7 +2183,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="AAD0B2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2127,7 +2197,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="C2DEC8"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2150,6 +2220,21 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -2355,27 +2440,37 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFAA3A"/>
-            </a:solidFill>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFAA3A"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFB657"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2389,7 +2484,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFC475"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2403,7 +2498,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FFD193"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2417,7 +2512,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FFAA3A"/>
+                <a:srgbClr val="FDDCB0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2794,6 +2889,9 @@
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="3"/>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
               </numCache>
             </numRef>
           </val>
@@ -2929,26 +3027,36 @@
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
-              <a:srgbClr val="64AA72"/>
-            </a:solidFill>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <invertIfNegative val="0"/>
           <dPt>
+            <idx val="0"/>
+            <invertIfNegative val="0"/>
+            <bubble3D val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="64AA72"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
             <idx val="1"/>
             <invertIfNegative val="0"/>
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="7BB787"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2961,7 +3069,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="92C39C"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2974,7 +3082,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="AAD0B2"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2987,7 +3095,7 @@
             <bubble3D val="0"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="64AA72"/>
+                <a:srgbClr val="C2DEC8"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3482,13 +3590,13 @@
       <col>0</col>
       <colOff>0</colOff>
       <row>34</row>
-      <rowOff>60965</rowOff>
+      <rowOff>5</rowOff>
     </from>
     <to>
       <col>3</col>
       <colOff>9407</colOff>
       <row>45</row>
-      <rowOff>60960</rowOff>
+      <rowOff>0</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3562,14 +3670,14 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>46</row>
-      <rowOff>18815</rowOff>
+      <row>45</row>
+      <rowOff>252495</rowOff>
     </from>
     <to>
       <col>3</col>
       <colOff>9407</colOff>
-      <row>57</row>
-      <rowOff>18810</rowOff>
+      <row>56</row>
+      <rowOff>211850</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3588,13 +3696,13 @@
   <twoCellAnchor>
     <from>
       <col>0</col>
-      <colOff>18815</colOff>
+      <colOff>0</colOff>
       <row>68</row>
       <rowOff>11288</rowOff>
     </from>
     <to>
       <col>2</col>
-      <colOff>37629</colOff>
+      <colOff>18814</colOff>
       <row>75</row>
       <rowOff>206963</rowOff>
     </to>
@@ -4026,8 +4134,8 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
-      <selection activeCell="G60" sqref="G60:G62"/>
+    <sheetView tabSelected="1" topLeftCell="A17" view="pageLayout" workbookViewId="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" zoomScaleSheetLayoutView="100">
+      <selection activeCell="A77" sqref="A77:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4038,7 +4146,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="34" r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Work-Report Trello</t>
         </is>
@@ -4054,7 +4162,7 @@
           <t>Infos</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>Wirkungsorientierung AS</t>
         </is>
@@ -4062,7 +4170,7 @@
       <c r="G2" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="58" r="3">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="32" t="inlineStr">
         <is>
           <t>Der Report zeigt, wie du mit der Trello-Software arbeitest und hilft dir dabei, gezielter damit umzugehen. 
 Für Feedback und Fragen zum Tool melde dich bei Micha Landoll (m.landoll@aktion-sodis.org).</t>
@@ -4070,7 +4178,7 @@
       </c>
     </row>
     <row customHeight="1" ht="126" r="4">
-      <c r="A4" s="34" t="inlineStr">
+      <c r="A4" s="31" t="inlineStr">
         <is>
           <t>Der Bericht zeigt wie aktiv, zuverlässig, pünktlich, ausführlich und gemeinschaftlich dein Team mit Trello-Karten arbeitet.
 Aktiv heißt: Anzahl erstellter &amp; bewegter Karten
@@ -4082,7 +4190,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="34" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4093,12 +4201,12 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="inlineStr">
+      <c r="A7" s="35" t="inlineStr">
         <is>
           <t>Zeitraum:</t>
         </is>
       </c>
-      <c r="B7" s="30" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>30 Tage</t>
         </is>
@@ -4108,7 +4216,7 @@
           <t>Rankinglänge:</t>
         </is>
       </c>
-      <c r="F7" s="30" t="inlineStr">
+      <c r="F7" s="39" t="inlineStr">
         <is>
           <t>5 Einträge</t>
         </is>
@@ -4154,7 +4262,7 @@
         </is>
       </c>
       <c r="F9" s="21" t="n"/>
-      <c r="G9" s="30" t="n"/>
+      <c r="G9" s="39" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="10">
       <c r="A10" s="18" t="inlineStr">
@@ -4180,7 +4288,7 @@
       <c r="D11" s="19" t="n"/>
       <c r="E11" s="18" t="n"/>
       <c r="F11" s="19" t="n"/>
-      <c r="G11" s="30" t="n"/>
+      <c r="G11" s="39" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="12">
       <c r="A12" s="18" t="n"/>
@@ -4198,27 +4306,27 @@
       <c r="D13" s="23" t="n"/>
       <c r="E13" s="22" t="n"/>
       <c r="F13" s="23" t="n"/>
-      <c r="G13" s="30" t="n"/>
+      <c r="G13" s="39" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="70" r="14" s="4">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="42" t="inlineStr">
         <is>
           <t>Aktiv, da hier Karten in Planung oder Bearbeitung sind. Z.B.: Anstehend, In Bearbeitung, ToDo</t>
         </is>
       </c>
-      <c r="B14" s="41" t="n"/>
-      <c r="C14" s="40" t="inlineStr">
+      <c r="B14" s="43" t="n"/>
+      <c r="C14" s="42" t="inlineStr">
         <is>
           <t>Semifinal, da es hier nichts aktiv zu tun gibt, die Karte aber noch nicht beendet ist. Z.B.: Review, Testing</t>
         </is>
       </c>
-      <c r="D14" s="41" t="n"/>
-      <c r="E14" s="40" t="inlineStr">
+      <c r="D14" s="43" t="n"/>
+      <c r="E14" s="42" t="inlineStr">
         <is>
           <t>Final, da diese Karte abgeschlossen ist. Z.B.: Done</t>
         </is>
       </c>
-      <c r="F14" s="41" t="n"/>
+      <c r="F14" s="43" t="n"/>
       <c r="G14" s="5" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="16">
@@ -4227,7 +4335,7 @@
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="B16" s="30" t="n"/>
+      <c r="B16" s="39" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="17">
       <c r="B17" s="7" t="inlineStr">
@@ -4243,7 +4351,7 @@
           <t>Aktiv</t>
         </is>
       </c>
-      <c r="G17" s="38" t="n">
+      <c r="G17" s="35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,7 +4376,7 @@
           <t>Semifinal</t>
         </is>
       </c>
-      <c r="G18" s="38" t="n">
+      <c r="G18" s="35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4288,7 +4396,7 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="G19" s="38" t="n">
+      <c r="G19" s="35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4321,7 +4429,7 @@
       <c r="B21" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="28" t="inlineStr">
+      <c r="C21" s="36" t="inlineStr">
         <is>
           <t>Bewegungen von Karten entgegen der definierten Richtung sind zu reduzieren. Du kannst Karten alte Karten kopieren anstelle diese für neue Aufgaben zu modifizieren.</t>
         </is>
@@ -4346,7 +4454,7 @@
           <t>Karten ohne Aktivität</t>
         </is>
       </c>
-      <c r="B26" s="38" t="n"/>
+      <c r="B26" s="35" t="n"/>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="14" t="n"/>
       <c r="E26" s="14" t="n"/>
@@ -4364,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="14" t="n"/>
-      <c r="E27" s="38" t="n"/>
+      <c r="E27" s="35" t="n"/>
       <c r="F27" s="14" t="n"/>
       <c r="G27" s="14" t="n"/>
     </row>
@@ -4379,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="14" t="n"/>
-      <c r="E28" s="38" t="n"/>
+      <c r="E28" s="35" t="n"/>
       <c r="F28" s="14" t="n"/>
       <c r="G28" s="14" t="n"/>
     </row>
@@ -4394,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="14" t="n"/>
-      <c r="E29" s="38" t="n"/>
+      <c r="E29" s="35" t="n"/>
       <c r="F29" s="14" t="n"/>
       <c r="G29" s="14" t="n"/>
     </row>
@@ -4409,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="14" t="n"/>
-      <c r="E30" s="38" t="n"/>
+      <c r="E30" s="35" t="n"/>
       <c r="F30" s="14" t="n"/>
       <c r="G30" s="14" t="n"/>
     </row>
@@ -4424,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="14" t="n"/>
-      <c r="E31" s="38" t="n"/>
+      <c r="E31" s="35" t="n"/>
       <c r="F31" s="14" t="n"/>
       <c r="G31" s="14" t="n"/>
     </row>
@@ -4513,9 +4621,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="C40" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" s="14" t="n">
         <v>0</v>
       </c>
@@ -4593,6 +4698,9 @@
       <c r="C51" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="F51" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="inlineStr">
@@ -4603,6 +4711,24 @@
       <c r="C52" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="F52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="20" r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -4625,7 +4751,7 @@
           <t>Finale Karten</t>
         </is>
       </c>
-      <c r="G60" s="38" t="n">
+      <c r="G60" s="35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4638,7 +4764,7 @@
           <t>Pünktlich</t>
         </is>
       </c>
-      <c r="G61" s="38" t="n">
+      <c r="G61" s="35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4651,7 +4777,7 @@
           <t>Nicht Pünktlich</t>
         </is>
       </c>
-      <c r="G62" s="39">
+      <c r="G62" s="28">
         <f>G60-G61</f>
         <v/>
       </c>
@@ -4666,6 +4792,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65">
+      <c r="B65" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row customHeight="1" ht="20" r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
@@ -4682,6 +4813,9 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
+      <c r="G70" s="35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="14" t="inlineStr">
@@ -4692,6 +4826,9 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
+      <c r="G71" s="35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="inlineStr">
@@ -4699,6 +4836,13 @@
           <t>Okay</t>
         </is>
       </c>
+      <c r="B72" s="14">
+        <f>B70-B71-B73</f>
+        <v/>
+      </c>
+      <c r="G72" s="35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="inlineStr">
@@ -4709,27 +4853,35 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
+      <c r="G73" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74" s="35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="29" t="inlineStr">
-        <is>
-          <t>Stern, wenn sie alle drei Qualitätsmerkmale einer Karte erfüllt sind: Beschreibung, Stichtag und Verantwortlichkeit. Einen Shit-Haufen kommt, wenn nur ein Merkmal oder weniger erfüllt ist.</t>
+      <c r="A77" s="37" t="inlineStr">
+        <is>
+          <t>Stern, wenn Beschreibung, Stichtag und Verantwortlichkeit. Shit-Haufen, wenn ein Merkmal oder weniger.</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C21:E25"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
